--- a/Result/Cefixime_AU2global.xlsx
+++ b/Result/Cefixime_AU2global.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ludwig\Documents\gclone\pw_gonorrhoeae\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8758634-F35D-4E8A-94E7-C88615F916FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25842EAB-E6A6-4CDA-9056-883404F700CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="1560" windowWidth="21600" windowHeight="13860" activeTab="1"/>
+    <workbookView xWindow="30360" yWindow="1560" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cefixime_AU2global" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -155,7 +168,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -633,8 +649,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1009,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3768,11 +3785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3845,43 +3862,43 @@
       <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f>VLOOKUP($H$1&amp;H$2&amp;$E3,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <f>VLOOKUP($H$1&amp;I$2&amp;$E3,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <f>VLOOKUP($H$1&amp;J$2&amp;$E3,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <f>VLOOKUP($H$1&amp;K$2&amp;$E3,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <f>VLOOKUP($H$1&amp;L$2&amp;$E3,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <f>VLOOKUP($H$1&amp;M$2&amp;$E3,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <f>VLOOKUP($H$1&amp;N$2&amp;$E3,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <f>VLOOKUP($H$1&amp;O$2&amp;$E3,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <f>VLOOKUP($H$1&amp;P$2&amp;$E3,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <f>VLOOKUP($H$1&amp;Q$2&amp;$E3,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
@@ -3899,43 +3916,43 @@
       <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f>VLOOKUP($H$1&amp;H$2&amp;$E4,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.98595943837753497</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <f>VLOOKUP($H$1&amp;I$2&amp;$E4,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.98596491228070204</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <f>VLOOKUP($H$1&amp;J$2&amp;$E4,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.98518518518518505</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <f>VLOOKUP($H$1&amp;K$2&amp;$E4,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.98011695906432705</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <f>VLOOKUP($H$1&amp;L$2&amp;$E4,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.97855750487329396</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <f>VLOOKUP($H$1&amp;M$2&amp;$E4,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.97815912636505498</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <f>VLOOKUP($H$1&amp;N$2&amp;$E4,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.97815912636505498</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <f>VLOOKUP($H$1&amp;O$2&amp;$E4,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.97698907956318304</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <f>VLOOKUP($H$1&amp;P$2&amp;$E4,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.96174863387978105</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <f>VLOOKUP($H$1&amp;Q$2&amp;$E4,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.96213895394223303</v>
       </c>
@@ -3953,43 +3970,43 @@
       <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f>VLOOKUP($H$1&amp;H$2&amp;$E5,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.98670605612998497</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <f>VLOOKUP($H$1&amp;I$2&amp;$E5,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.98671096345514997</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <f>VLOOKUP($H$1&amp;J$2&amp;$E5,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.985972683647102</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <f>VLOOKUP($H$1&amp;K$2&amp;$E5,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.98117386489479497</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <f>VLOOKUP($H$1&amp;L$2&amp;$E5,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.97969730527870102</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <f>VLOOKUP($H$1&amp;M$2&amp;$E5,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.97932053175775502</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <f>VLOOKUP($H$1&amp;N$2&amp;$E5,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.97932053175775502</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <f>VLOOKUP($H$1&amp;O$2&amp;$E5,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.97821270310191999</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <f>VLOOKUP($H$1&amp;P$2&amp;$E5,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.96378418329637805</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <f>VLOOKUP($H$1&amp;Q$2&amp;$E5,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.964153732446415</v>
       </c>
@@ -4010,43 +4027,43 @@
       <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f>VLOOKUP($H$1&amp;H$2&amp;$E6,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <f>VLOOKUP($H$1&amp;I$2&amp;$E6,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <f>VLOOKUP($H$1&amp;J$2&amp;$E6,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <f>VLOOKUP($H$1&amp;K$2&amp;$E6,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <f>VLOOKUP($H$1&amp;L$2&amp;$E6,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <f>VLOOKUP($H$1&amp;M$2&amp;$E6,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <f>VLOOKUP($H$1&amp;N$2&amp;$E6,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <f>VLOOKUP($H$1&amp;O$2&amp;$E6,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <f>VLOOKUP($H$1&amp;P$2&amp;$E6,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <f>VLOOKUP($H$1&amp;Q$2&amp;$E6,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>1</v>
       </c>
@@ -4064,43 +4081,43 @@
       <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f>VLOOKUP($H$1&amp;H$2&amp;$E7,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99712390228937398</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <f>VLOOKUP($H$1&amp;I$2&amp;$E7,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99643322850349003</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <f>VLOOKUP($H$1&amp;J$2&amp;$E7,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99647158088517296</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <f>VLOOKUP($H$1&amp;K$2&amp;$E7,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99643322850349003</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <f>VLOOKUP($H$1&amp;L$2&amp;$E7,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99643322850349003</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <f>VLOOKUP($H$1&amp;M$2&amp;$E7,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.996126558005753</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <f>VLOOKUP($H$1&amp;N$2&amp;$E7,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99206136145733503</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <f>VLOOKUP($H$1&amp;O$2&amp;$E7,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99608820709491896</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <f>VLOOKUP($H$1&amp;P$2&amp;$E7,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99700874367234205</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <f>VLOOKUP($H$1&amp;Q$2&amp;$E7,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99631803014612796</v>
       </c>
@@ -4118,43 +4135,43 @@
       <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f>VLOOKUP($H$1&amp;H$2&amp;$E8,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99735449735449699</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <f>VLOOKUP($H$1&amp;I$2&amp;$E8,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99671922954809999</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <f>VLOOKUP($H$1&amp;J$2&amp;$E8,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99675450664973397</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <f>VLOOKUP($H$1&amp;K$2&amp;$E8,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99671922954809999</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <f>VLOOKUP($H$1&amp;L$2&amp;$E8,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99671922954809999</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <f>VLOOKUP($H$1&amp;M$2&amp;$E8,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99643713842246395</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <f>VLOOKUP($H$1&amp;N$2&amp;$E8,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99269789755891102</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <f>VLOOKUP($H$1&amp;O$2&amp;$E8,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99640186256525998</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <f>VLOOKUP($H$1&amp;P$2&amp;$E8,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99724858019683205</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <f>VLOOKUP($H$1&amp;Q$2&amp;$E8,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.99661327876949102</v>
       </c>
@@ -4405,43 +4422,43 @@
       <c r="G16" t="s">
         <v>37</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <f>VLOOKUP($H$14&amp;H$15&amp;$E16,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <f>VLOOKUP($H$14&amp;I$15&amp;$E16,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <f>VLOOKUP($H$14&amp;J$15&amp;$E16,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <f>VLOOKUP($H$14&amp;K$15&amp;$E16,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <f>VLOOKUP($H$14&amp;L$15&amp;$E16,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <f>VLOOKUP($H$14&amp;M$15&amp;$E16,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <f>VLOOKUP($H$14&amp;N$15&amp;$E16,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <f>VLOOKUP($H$14&amp;O$15&amp;$E16,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="1">
         <f>VLOOKUP($H$14&amp;P$15&amp;$E16,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <f>VLOOKUP($H$14&amp;Q$15&amp;$E16,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>1</v>
       </c>
@@ -4459,43 +4476,43 @@
       <c r="G17" t="s">
         <v>38</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <f>VLOOKUP($H$14&amp;H$15&amp;$E17,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.86713286713286697</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <f>VLOOKUP($H$14&amp;I$15&amp;$E17,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.86324786324786296</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <f>VLOOKUP($H$14&amp;J$15&amp;$E17,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.86324786324786296</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <f>VLOOKUP($H$14&amp;K$15&amp;$E17,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.85980582524271898</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <f>VLOOKUP($H$14&amp;L$15&amp;$E17,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.856031128404669</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <f>VLOOKUP($H$14&amp;M$15&amp;$E17,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.856031128404669</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <f>VLOOKUP($H$14&amp;N$15&amp;$E17,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.88212334113973501</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <f>VLOOKUP($H$14&amp;O$15&amp;$E17,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.87451437451437497</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="1">
         <f>VLOOKUP($H$14&amp;P$15&amp;$E17,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.87451437451437497</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <f>VLOOKUP($H$14&amp;Q$15&amp;$E17,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.87451437451437497</v>
       </c>
@@ -4513,43 +4530,43 @@
       <c r="G18" t="s">
         <v>39</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <f>VLOOKUP($H$14&amp;H$15&amp;$E18,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.87417218543046404</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <f>VLOOKUP($H$14&amp;I$15&amp;$E18,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.87049300956585696</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <f>VLOOKUP($H$14&amp;J$15&amp;$E18,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.87049300956585696</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <f>VLOOKUP($H$14&amp;K$15&amp;$E18,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.86723059948510495</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <f>VLOOKUP($H$14&amp;L$15&amp;$E18,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.86366985998526202</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <f>VLOOKUP($H$14&amp;M$15&amp;$E18,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.86366985998526202</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <f>VLOOKUP($H$14&amp;N$15&amp;$E18,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.88839615668883998</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <f>VLOOKUP($H$14&amp;O$15&amp;$E18,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.88116261957321595</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="1">
         <f>VLOOKUP($H$14&amp;P$15&amp;$E18,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.88116261957321595</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="1">
         <f>VLOOKUP($H$14&amp;Q$15&amp;$E18,Cefixime_AU2global!$A:$K,9,FALSE)</f>
         <v>0.88116261957321595</v>
       </c>
@@ -4570,43 +4587,43 @@
       <c r="G19" t="s">
         <v>37</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <f>VLOOKUP($H$14&amp;H$15&amp;$E19,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.98152221733391998</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <f>VLOOKUP($H$14&amp;I$15&amp;$E19,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.98988121425428899</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <f>VLOOKUP($H$14&amp;J$15&amp;$E19,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.98988121425428899</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <f>VLOOKUP($H$14&amp;K$15&amp;$E19,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.98592168939727198</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <f>VLOOKUP($H$14&amp;L$15&amp;$E19,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.98900131984161899</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <f>VLOOKUP($H$14&amp;M$15&amp;$E19,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.98900131984161899</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <f>VLOOKUP($H$14&amp;N$15&amp;$E19,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.98504179498460198</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <f>VLOOKUP($H$14&amp;O$15&amp;$E19,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.98416190057193098</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="1">
         <f>VLOOKUP($H$14&amp;P$15&amp;$E19,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.98416190057193098</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="1">
         <f>VLOOKUP($H$14&amp;Q$15&amp;$E19,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.98416190057193098</v>
       </c>
@@ -4624,43 +4641,43 @@
       <c r="G20" t="s">
         <v>38</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <f>VLOOKUP($H$14&amp;H$15&amp;$E20,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.9472219000116</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <f>VLOOKUP($H$14&amp;I$15&amp;$E20,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.97298877455565902</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <f>VLOOKUP($H$14&amp;J$15&amp;$E20,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.97296348314606695</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <f>VLOOKUP($H$14&amp;K$15&amp;$E20,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.94596995326922295</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <f>VLOOKUP($H$14&amp;L$15&amp;$E20,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.95497565725413802</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <f>VLOOKUP($H$14&amp;M$15&amp;$E20,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.95497565725413802</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <f>VLOOKUP($H$14&amp;N$15&amp;$E20,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.94460402133771004</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <f>VLOOKUP($H$14&amp;O$15&amp;$E20,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.94984667527437106</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <f>VLOOKUP($H$14&amp;P$15&amp;$E20,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.94984667527437106</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="1">
         <f>VLOOKUP($H$14&amp;Q$15&amp;$E20,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.94984667527437106</v>
       </c>
@@ -4678,43 +4695,43 @@
       <c r="G21" t="s">
         <v>39</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <f>VLOOKUP($H$14&amp;H$15&amp;$E21,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.949992891669036</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <f>VLOOKUP($H$14&amp;I$15&amp;$E21,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.97436356475348196</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <f>VLOOKUP($H$14&amp;J$15&amp;$E21,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.97434151585737305</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <f>VLOOKUP($H$14&amp;K$15&amp;$E21,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.94919406376482296</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <f>VLOOKUP($H$14&amp;L$15&amp;$E21,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.95774295119507602</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <f>VLOOKUP($H$14&amp;M$15&amp;$E21,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.95774295119507602</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <f>VLOOKUP($H$14&amp;N$15&amp;$E21,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.94805389783432803</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <f>VLOOKUP($H$14&amp;O$15&amp;$E21,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.95272942306981601</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <f>VLOOKUP($H$14&amp;P$15&amp;$E21,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.95272942306981601</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="1">
         <f>VLOOKUP($H$14&amp;Q$15&amp;$E21,Cefixime_AU2global!$A:$K,10,FALSE)</f>
         <v>0.95272942306981601</v>
       </c>
